--- a/pomiary.xlsx
+++ b/pomiary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D66D9EE-5B34-4053-AD98-A994FEC2DF26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1DB7C-B410-4B01-B1F6-938E07379681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
-    <t>V</t>
+    <t>MACIERZ</t>
   </si>
   <si>
-    <t>GRAF PEŁNY MACIERZ</t>
+    <t>LISTA</t>
   </si>
   <si>
-    <t>GRAF PEŁNY LISTA</t>
+    <t>|V|</t>
   </si>
   <si>
-    <t>t[ms]</t>
+    <t>Gestosc</t>
   </si>
   <si>
-    <t>ALGORYTM KRUSKALA</t>
+    <t>t[s]</t>
   </si>
 </sst>
 </file>
@@ -58,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -66,12 +66,314 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -87,6 +389,2521 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Macierz</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> sąsiedztwa</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Graf pełny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1130.883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15894.807000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB5-4FE7-8A8A-1A9F74CD8740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gęstość = 75</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>577.08900000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10882.341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FB5-4FE7-8A8A-1A9F74CD8740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Gęstość = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4591.2960000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3FB5-4FE7-8A8A-1A9F74CD8740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Gęstość = 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>853.11900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3FB5-4FE7-8A8A-1A9F74CD8740}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557342336"/>
+        <c:axId val="557341024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557342336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557341024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557341024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557342336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Lista</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> sąsiedztwa</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Graf pełny</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1042.0029999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14266.166999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAED-4102-B657-3AB6C6C8797C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Gęstość = 75</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$12:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>589.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10613.486999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FAED-4102-B657-3AB6C6C8797C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Gęstość = 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4147.9030000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FAED-4102-B657-3AB6C6C8797C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Gęstość = 25</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$12:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1096.021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FAED-4102-B657-3AB6C6C8797C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557342336"/>
+        <c:axId val="557341024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557342336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557341024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557341024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557342336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC0BA0A-C863-4DD8-96FF-CFE67AB07432}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A560F-1B7D-4A97-92AB-3503072C7F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,133 +3169,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13">
+        <v>75</v>
+      </c>
+      <c r="D2" s="13">
+        <v>50</v>
+      </c>
+      <c r="E2" s="13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>10</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>50</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>100</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.249</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>500</v>
+      </c>
+      <c r="B9" s="16">
+        <v>1130.883</v>
+      </c>
+      <c r="C9" s="4">
+        <v>577.08900000000006</v>
+      </c>
+      <c r="D9" s="4">
+        <v>263.13400000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>41.832999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="17">
+        <v>15894.807000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10882.341</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4591.2960000000003</v>
+      </c>
+      <c r="E10" s="2">
+        <v>853.11900000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="D12" s="18">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>10</v>
+      </c>
+      <c r="B13" s="16">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C13" s="6">
         <v>0</v>
       </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>50</v>
+      </c>
+      <c r="B14" s="16">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D14" s="19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>100</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>950</v>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>500</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1042.0029999999999</v>
+      </c>
+      <c r="C16" s="6">
+        <v>589.17100000000005</v>
+      </c>
+      <c r="D16" s="19">
+        <v>294.38499999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>53.415999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>50</v>
-      </c>
-      <c r="B14">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>100</v>
-      </c>
-      <c r="B15">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>500</v>
-      </c>
-      <c r="B16">
-        <v>1042003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1000</v>
+      <c r="B17" s="17">
+        <v>14266.166999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10613.486999999999</v>
+      </c>
+      <c r="D17" s="20">
+        <v>4147.9030000000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1096.021</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/pomiary.xlsx
+++ b/pomiary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE1DB7C-B410-4B01-B1F6-938E07379681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64D5B20-A7EB-4EF8-8B19-DFE0B817DEC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -332,21 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +358,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1715,6 +1715,1921 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Graf pełny</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$12:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1042.0029999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14266.166999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CC1-4A80-BCE0-D3ADD83C29E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1130.883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15894.807000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5CC1-4A80-BCE0-D3ADD83C29E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557342336"/>
+        <c:axId val="557341024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557342336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557341024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557341024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557342336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>gęstość</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 75%</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$12:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>589.17100000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10613.486999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C6F-468B-8C9F-9717DE421C77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>577.08900000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10882.341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C6F-468B-8C9F-9717DE421C77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557342336"/>
+        <c:axId val="557341024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557342336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557341024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557341024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557342336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>gęstość</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 50%</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$12:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4147.9030000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA58-400B-A9C7-48AF43887BDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>263.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4591.2960000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA58-400B-A9C7-48AF43887BDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557342336"/>
+        <c:axId val="557341024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557342336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557341024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557341024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557342336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>gęstość</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 25%</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lista Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$12:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$12:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1096.021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4434-4280-9908-C6AF20D67E04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Macierz Sąsiedztwa</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Arkusz1!$A$5:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Arkusz1!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.832999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>853.11900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4434-4280-9908-C6AF20D67E04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="557342336"/>
+        <c:axId val="557341024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="557342336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557341024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="557341024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557342336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1795,6 +3710,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2312,6 +4387,2070 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2898,6 +7037,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E561B3-4802-4B6A-9F8B-DCE6E3485E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F57C7C-C8C5-43DA-9DEE-D0C63B0AF581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7393C9AC-C790-4446-8866-6FFED41EC482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC6EC06-A062-4637-8F84-2EE7005D5771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3171,67 +7462,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="8">
         <v>100</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="8">
         <v>75</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="8">
         <v>50</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="8">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="10">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -3245,10 +7536,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="14">
         <v>10</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="11">
         <v>0</v>
       </c>
       <c r="C6" s="4">
@@ -3262,10 +7553,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="14">
         <v>50</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="11">
         <v>0.06</v>
       </c>
       <c r="C7" s="4">
@@ -3279,10 +7570,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+      <c r="A8" s="14">
         <v>100</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="11">
         <v>0.95</v>
       </c>
       <c r="C8" s="4">
@@ -3296,10 +7587,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="A9" s="14">
         <v>500</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="11">
         <v>1130.883</v>
       </c>
       <c r="C9" s="4">
@@ -3313,10 +7604,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
+      <c r="A10" s="15">
         <v>1000</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>15894.807000000001</v>
       </c>
       <c r="C10" s="2">
@@ -3330,25 +7621,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="10">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="13">
         <v>1E-3</v>
       </c>
       <c r="E12" s="3">
@@ -3356,16 +7647,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="14">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="14">
         <v>0</v>
       </c>
       <c r="E13" s="4">
@@ -3373,16 +7664,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="14">
         <v>50</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="11">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C14" s="6">
         <v>0.04</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="14">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="E14" s="4">
@@ -3390,16 +7681,16 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+      <c r="A15" s="14">
         <v>100</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="11">
         <v>0.99299999999999999</v>
       </c>
       <c r="C15" s="6">
         <v>0.54800000000000004</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="14">
         <v>0.23799999999999999</v>
       </c>
       <c r="E15" s="4">
@@ -3407,16 +7698,16 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+      <c r="A16" s="14">
         <v>500</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="11">
         <v>1042.0029999999999</v>
       </c>
       <c r="C16" s="6">
         <v>589.17100000000005</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="14">
         <v>294.38499999999999</v>
       </c>
       <c r="E16" s="4">
@@ -3424,16 +7715,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="15">
         <v>1000</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="12">
         <v>14266.166999999999</v>
       </c>
       <c r="C17" s="1">
         <v>10613.486999999999</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>4147.9030000000002</v>
       </c>
       <c r="E17" s="2">
